--- a/fw更新记录.xlsx
+++ b/fw更新记录.xlsx
@@ -4,20 +4,41 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24940" windowHeight="10740"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
-    <sheet name="更新记录" sheetId="1" r:id="rId1"/>
-    <sheet name="517命令对应表" sheetId="2" r:id="rId2"/>
-    <sheet name="503命令对应表" sheetId="3" r:id="rId3"/>
-    <sheet name="364命令对应表" sheetId="4" r:id="rId4"/>
+    <sheet name="fw系列说明" sheetId="7" r:id="rId1"/>
+    <sheet name="0.x.x更新记录" sheetId="1" r:id="rId2"/>
+    <sheet name="1.x.x更新记录" sheetId="6" r:id="rId3"/>
+    <sheet name="517命令对应表" sheetId="2" r:id="rId4"/>
+    <sheet name="503命令对应表" sheetId="3" r:id="rId5"/>
+    <sheet name="364命令对应表" sheetId="4" r:id="rId6"/>
+    <sheet name="394命令对应表" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="146">
+  <si>
+    <t>由于芯片容量限制以及不同模块的差异，不可能使用同一个fw支持所有的模块。后续将采取版本号以"."分隔的第一组字符作为不同fw的区分，后两组字符作为相同功能fw的版本分区。本页描述了各fw支持的模块型号。</t>
+  </si>
+  <si>
+    <t>FW版本</t>
+  </si>
+  <si>
+    <t>支持的模块</t>
+  </si>
+  <si>
+    <t>0.x.x</t>
+  </si>
+  <si>
+    <t>364、503、517</t>
+  </si>
+  <si>
+    <t>1.x.x</t>
+  </si>
   <si>
     <t>版本</t>
   </si>
@@ -124,6 +145,58 @@
     <t>增加了"Unknown command"错误提示</t>
   </si>
   <si>
+    <t>0.1.1</t>
+  </si>
+  <si>
+    <t>增加"file_name read"和"file_version read"命令的软件实现</t>
+  </si>
+  <si>
+    <t>0.1.2</t>
+  </si>
+  <si>
+    <t>增加对517项目EEPROM标定及其他数据的写入</t>
+  </si>
+  <si>
+    <t>修正了voa read的某些bug</t>
+  </si>
+  <si>
+    <t>1. 读voa时，以前只支持adc值顺序为降序的模式，现在fw会先判断标定数据的顺序，然后再查询。
+2. 修正了某种情况下"voa read"的读溢出问题。</t>
+  </si>
+  <si>
+    <t>将voltage threshold的输入/输出数据改为整数</t>
+  </si>
+  <si>
+    <t>0.1.3</t>
+  </si>
+  <si>
+    <t>增加对503项目EEPROM标定及其他数据的写入</t>
+  </si>
+  <si>
+    <t>0.1.4</t>
+  </si>
+  <si>
+    <t>修正503项目部分命令输出乱码问题</t>
+  </si>
+  <si>
+    <t>若EEPROM文件末尾非WORD对齐且要求WORD校验，将EEPROM末尾写0补齐。</t>
+  </si>
+  <si>
+    <t>364及517项目spec没有此要求，394项目spec中有。不影响503项目。</t>
+  </si>
+  <si>
+    <t>支持394项目pd/adc读取、switch读写功能</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>支持394模块的标定及测试。</t>
+  </si>
+  <si>
+    <t>394模块切换光开关需要将"UPDATE_S"信号置高，执行"pin PA4 write 1"即可，置低则为"pin PA4 write 0"，读取信号状态为"pin PA4 read"。</t>
+  </si>
+  <si>
     <t>adc命令对应表</t>
   </si>
   <si>
@@ -362,6 +435,30 @@
   </si>
   <si>
     <t>通道名称</t>
+  </si>
+  <si>
+    <t>Ch_IN0</t>
+  </si>
+  <si>
+    <t>Ch_IN1</t>
+  </si>
+  <si>
+    <t>RI1</t>
+  </si>
+  <si>
+    <t>0x1AD | 429</t>
+  </si>
+  <si>
+    <t>RI2</t>
+  </si>
+  <si>
+    <t>0x38D | 909</t>
+  </si>
+  <si>
+    <t>RO-RI1</t>
+  </si>
+  <si>
+    <t>RO-RI2</t>
   </si>
 </sst>
 </file>
@@ -370,11 +467,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,10 +488,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -406,14 +511,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,44 +549,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,17 +586,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,11 +609,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -528,10 +639,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -544,7 +656,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,13 +800,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,157 +836,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,6 +859,43 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -791,43 +940,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -889,32 +1001,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -936,35 +1033,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -986,6 +1074,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -994,10 +1106,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1006,19 +1118,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1027,155 +1139,155 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1188,14 +1300,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1545,193 +1687,319 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="39.45" style="27" customWidth="1"/>
+    <col min="2" max="2" width="112.625" style="27" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="24" customFormat="1" ht="37" customHeight="1" spans="1:2">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28"/>
+    </row>
+    <row r="2" s="25" customFormat="1"/>
+    <row r="3" s="26" customFormat="1" ht="18.75" spans="1:2">
+      <c r="A3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="27">
+        <v>394</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="61.8727272727273" customWidth="1"/>
-    <col min="3" max="3" width="24.8909090909091" customWidth="1"/>
+    <col min="2" max="2" width="70.4666666666667" customWidth="1"/>
+    <col min="3" max="3" width="65.575" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="17" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="8" t="s">
-        <v>3</v>
+      <c r="A2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="18" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="9"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="18" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4" s="18"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="18" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="19"/>
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="20"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2"/>
       <c r="B7" s="18" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2"/>
       <c r="B8" s="18" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>15</v>
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2"/>
       <c r="B10" s="18" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2"/>
       <c r="B11" s="18" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="19"/>
+      <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="20"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>24</v>
+      <c r="A13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2"/>
       <c r="B14" s="18" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="19"/>
+      <c r="A15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="20"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="19"/>
+      <c r="A16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="20"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="19"/>
+      <c r="A17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="20"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="19"/>
+      <c r="A18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="20"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2"/>
       <c r="B19" s="18" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C19" s="18"/>
     </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="20"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="20"/>
+    </row>
+    <row r="22" ht="40.5" spans="1:3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="18"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="20"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="20"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1739,32 +2007,78 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="70.4666666666667" customWidth="1"/>
+    <col min="3" max="3" width="65.575" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="27" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.7545454545455" customWidth="1"/>
+    <col min="1" max="1" width="21.7583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1778,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1792,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1806,26 +2120,26 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1836,13 +2150,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1854,31 +2168,31 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="3" t="s">
-        <v>37</v>
+      <c r="E10" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="F10" s="16"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2"/>
@@ -1886,43 +2200,43 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -1932,13 +2246,13 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -1948,14 +2262,14 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -1968,12 +2282,12 @@
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="G16" s="2">
         <v>2</v>
@@ -2013,32 +2327,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A1" sqref="A1:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.7545454545455" customWidth="1"/>
+    <col min="1" max="1" width="21.7583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -2052,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -2066,7 +2380,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2080,24 +2394,24 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="3" t="s">
-        <v>37</v>
+      <c r="E6" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2106,7 +2420,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2">
@@ -2119,7 +2433,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
@@ -2132,7 +2446,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2">
@@ -2158,33 +2472,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26:I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21.7545454545455" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="21.7583333333333" style="12" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -2198,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -2212,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2226,7 +2540,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -2240,7 +2554,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -2254,7 +2568,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -2268,7 +2582,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -2282,7 +2596,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2296,7 +2610,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -2310,7 +2624,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2324,7 +2638,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2338,7 +2652,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2352,7 +2666,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -2366,26 +2680,26 @@
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2396,13 +2710,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2414,10 +2728,10 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2429,10 +2743,10 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2444,10 +2758,10 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -2458,13 +2772,13 @@
         <v>5</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2476,10 +2790,10 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -2491,10 +2805,10 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2506,34 +2820,34 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="2" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="11"/>
+      <c r="E26" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="2"/>
@@ -2541,18 +2855,18 @@
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2">
         <v>0</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="12"/>
+      <c r="F27" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="2"/>
@@ -2560,18 +2874,18 @@
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2">
         <v>1</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="12"/>
+      <c r="F28" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="2"/>
@@ -2579,18 +2893,18 @@
         <v>3</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2">
         <v>2</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="12"/>
+      <c r="F29" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="2"/>
@@ -2598,18 +2912,18 @@
         <v>4</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2">
         <v>3</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="12"/>
+      <c r="F30" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="11"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="2"/>
@@ -2617,44 +2931,44 @@
         <v>5</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2">
         <v>4</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="12"/>
+      <c r="F31" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="11"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H33" s="2"/>
-      <c r="I33" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="11"/>
+      <c r="I33" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="10"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="2"/>
@@ -2662,13 +2976,13 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="13"/>
@@ -2682,25 +2996,25 @@
         <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="G35" s="2">
         <v>11</v>
       </c>
       <c r="H35" s="2"/>
-      <c r="I35" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="12"/>
+      <c r="I35" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="11"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="2"/>
@@ -2708,23 +3022,23 @@
         <v>2</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="G36" s="2">
         <v>12</v>
       </c>
       <c r="H36" s="2"/>
-      <c r="I36" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="12"/>
+      <c r="I36" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="11"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="2"/>
@@ -2732,23 +3046,23 @@
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="G37" s="2">
         <v>6</v>
       </c>
       <c r="H37" s="2"/>
-      <c r="I37" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="12"/>
+      <c r="I37" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="11"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="2"/>
@@ -2756,23 +3070,23 @@
         <v>4</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="G38" s="2">
         <v>8</v>
       </c>
       <c r="H38" s="2"/>
-      <c r="I38" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="12"/>
+      <c r="I38" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="11"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="2"/>
@@ -2780,25 +3094,25 @@
         <v>5</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="G39" s="2">
         <v>9</v>
       </c>
       <c r="H39" s="2"/>
-      <c r="I39" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="12"/>
+      <c r="I39" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="11"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="2"/>
@@ -2806,23 +3120,23 @@
         <v>6</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="G40" s="2">
         <v>10</v>
       </c>
       <c r="H40" s="2"/>
-      <c r="I40" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="12"/>
+      <c r="I40" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="11"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="2"/>
@@ -2830,23 +3144,23 @@
         <v>7</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="G41" s="2">
         <v>5</v>
       </c>
       <c r="H41" s="2"/>
-      <c r="I41" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="12"/>
+      <c r="I41" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="11"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="2"/>
@@ -2854,42 +3168,42 @@
         <v>8</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="G42" s="2">
         <v>7</v>
       </c>
       <c r="H42" s="2"/>
-      <c r="I42" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="12"/>
+      <c r="I42" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="11"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="8" t="s">
-        <v>111</v>
+      <c r="A44" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="D44" s="2"/>
-      <c r="E44" s="3" t="s">
-        <v>114</v>
+      <c r="E44" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="9"/>
-      <c r="B45" s="8">
+      <c r="A45" s="3"/>
+      <c r="B45" s="1">
         <v>1</v>
       </c>
       <c r="C45" s="2">
@@ -2897,18 +3211,18 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
       <c r="C46" s="2">
         <v>2</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2995,4 +3309,184 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.7583333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B10:B11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/fw更新记录.xlsx
+++ b/fw更新记录.xlsx
@@ -10,7 +10,7 @@
     <sheet name="fw系列说明" sheetId="7" r:id="rId1"/>
     <sheet name="0.x.x更新记录" sheetId="1" r:id="rId2"/>
     <sheet name="1.x.x更新记录" sheetId="6" r:id="rId3"/>
-    <sheet name="517命令对应表" sheetId="2" r:id="rId4"/>
+    <sheet name="517+573命令对应表" sheetId="2" r:id="rId4"/>
     <sheet name="503命令对应表" sheetId="3" r:id="rId5"/>
     <sheet name="364命令对应表" sheetId="4" r:id="rId6"/>
     <sheet name="394命令对应表" sheetId="5" r:id="rId7"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="148">
   <si>
     <t>由于芯片容量限制以及不同模块的差异，不可能使用同一个fw支持所有的模块。后续将采取版本号以"."分隔的第一组字符作为不同fw的区分，后两组字符作为相同功能fw的版本分区。本页描述了各fw支持的模块型号。</t>
   </si>
@@ -34,7 +34,7 @@
     <t>0.x.x</t>
   </si>
   <si>
-    <t>364、503、517</t>
+    <t>364、503、517、573</t>
   </si>
   <si>
     <t>1.x.x</t>
@@ -179,13 +179,10 @@
     <t>修正503项目部分命令输出乱码问题</t>
   </si>
   <si>
-    <t>若EEPROM文件末尾非WORD对齐且要求WORD校验，将EEPROM末尾写0补齐。</t>
-  </si>
-  <si>
-    <t>364及517项目spec没有此要求，394项目spec中有。不影响503项目。</t>
-  </si>
-  <si>
-    <t>支持394项目pd/adc读取、switch读写功能</t>
+    <t>0.1.5</t>
+  </si>
+  <si>
+    <t>增加对573项目的支持</t>
   </si>
   <si>
     <t>1.0.0</t>
@@ -194,7 +191,16 @@
     <t>支持394模块的标定及测试。</t>
   </si>
   <si>
-    <t>394模块切换光开关需要将"UPDATE_S"信号置高，执行"pin PA4 write 1"即可，置低则为"pin PA4 write 0"，读取信号状态为"pin PA4 read"。</t>
+    <t>394模块切换光开关前需要将"UPDATE_S"信号置高，执行"pin PA4 write 1"即可，置低则为"pin PA4 write 0"。</t>
+  </si>
+  <si>
+    <t>1.0.1</t>
+  </si>
+  <si>
+    <t>支持394模块的Switch自检。</t>
+  </si>
+  <si>
+    <t>"switch 1 check"</t>
   </si>
   <si>
     <t>adc命令对应表</t>
@@ -466,10 +472,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -517,15 +523,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,9 +546,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,24 +562,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,17 +593,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -617,21 +631,13 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -640,10 +646,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -656,13 +662,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,31 +728,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,103 +752,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,19 +782,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,6 +1007,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1012,6 +1027,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1033,11 +1059,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,48 +1104,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1106,10 +1112,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1118,137 +1124,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1318,9 +1324,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1335,9 +1338,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1690,44 +1690,44 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="39.45" style="27" customWidth="1"/>
-    <col min="2" max="2" width="112.625" style="27" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="27"/>
+    <col min="1" max="1" width="39.4583333333333" style="26" customWidth="1"/>
+    <col min="2" max="2" width="112.625" style="26" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" s="24" customFormat="1" ht="37" customHeight="1" spans="1:2">
-      <c r="A1" s="28" t="s">
+    <row r="1" s="23" customFormat="1" ht="37" customHeight="1" spans="1:2">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-    </row>
-    <row r="2" s="25" customFormat="1"/>
-    <row r="3" s="26" customFormat="1" ht="18.75" spans="1:2">
-      <c r="A3" s="29" t="s">
+      <c r="B1" s="27"/>
+    </row>
+    <row r="2" s="24" customFormat="1"/>
+    <row r="3" s="25" customFormat="1" ht="18.75" spans="1:2">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="25" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="26">
         <v>394</v>
       </c>
     </row>
@@ -1743,12 +1743,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD5"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1946,7 +1946,7 @@
       <c r="B22" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="19" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1976,30 +1976,22 @@
       <c r="C25" s="20"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="18" t="s">
+      <c r="A26" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="B26" s="20" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="18"/>
+      <c r="C26" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2010,7 +2002,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2018,9 +2010,9 @@
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="1" width="17" style="12" customWidth="1"/>
     <col min="2" max="2" width="70.4666666666667" customWidth="1"/>
     <col min="3" max="3" width="65.575" customWidth="1"/>
   </cols>
@@ -2038,13 +2030,24 @@
     </row>
     <row r="2" ht="27" spans="1:3">
       <c r="A2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="19" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>57</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2069,16 +2072,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -2092,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -2106,7 +2109,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2120,26 +2123,26 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -2150,13 +2153,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -2168,27 +2171,27 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="12"/>
@@ -2200,7 +2203,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2">
@@ -2222,21 +2225,21 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -2246,13 +2249,13 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -2262,14 +2265,14 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -2282,12 +2285,12 @@
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G16" s="2">
         <v>2</v>
@@ -2343,16 +2346,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -2366,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -2380,7 +2383,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2394,24 +2397,24 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2420,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2">
@@ -2433,7 +2436,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
@@ -2446,7 +2449,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2">
@@ -2478,7 +2481,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26:I31"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2489,16 +2492,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -2512,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -2526,7 +2529,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2540,7 +2543,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -2554,7 +2557,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -2568,7 +2571,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -2582,7 +2585,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -2596,7 +2599,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2610,7 +2613,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -2624,7 +2627,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2638,7 +2641,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2652,7 +2655,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2666,7 +2669,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -2680,26 +2683,26 @@
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2710,13 +2713,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2728,10 +2731,10 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2743,10 +2746,10 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2758,10 +2761,10 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -2772,13 +2775,13 @@
         <v>5</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2790,10 +2793,10 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -2805,10 +2808,10 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2820,30 +2823,30 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -2855,14 +2858,14 @@
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2">
         <v>0</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
@@ -2874,14 +2877,14 @@
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2">
         <v>1</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
@@ -2893,14 +2896,14 @@
         <v>3</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2">
         <v>2</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -2912,14 +2915,14 @@
         <v>4</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2">
         <v>3</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -2931,14 +2934,14 @@
         <v>5</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2">
         <v>4</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -2946,25 +2949,25 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
@@ -2976,13 +2979,13 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="13"/>
@@ -2996,21 +2999,21 @@
         <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G35" s="2">
         <v>11</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
@@ -3022,19 +3025,19 @@
         <v>2</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G36" s="2">
         <v>12</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
@@ -3046,19 +3049,19 @@
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G37" s="2">
         <v>6</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
@@ -3070,19 +3073,19 @@
         <v>4</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G38" s="2">
         <v>8</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
@@ -3094,21 +3097,21 @@
         <v>5</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G39" s="2">
         <v>9</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
@@ -3120,19 +3123,19 @@
         <v>6</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G40" s="2">
         <v>10</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
@@ -3144,19 +3147,19 @@
         <v>7</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G41" s="2">
         <v>5</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
@@ -3168,19 +3171,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G42" s="2">
         <v>7</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
@@ -3188,17 +3191,17 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3211,7 +3214,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3222,7 +3225,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3327,16 +3330,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -3350,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -3364,27 +3367,27 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -3396,14 +3399,14 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2">
         <v>0</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -3415,14 +3418,14 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -3430,17 +3433,17 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3453,7 +3456,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3464,7 +3467,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/fw更新记录.xlsx
+++ b/fw更新记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowHeight="17940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="fw系列说明" sheetId="7" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="1.x.x更新记录" sheetId="6" r:id="rId3"/>
     <sheet name="517+573命令对应表" sheetId="2" r:id="rId4"/>
     <sheet name="503命令对应表" sheetId="3" r:id="rId5"/>
-    <sheet name="364命令对应表" sheetId="4" r:id="rId6"/>
+    <sheet name="364+419命令对应表" sheetId="4" r:id="rId6"/>
     <sheet name="394命令对应表" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="154">
   <si>
     <t>由于芯片容量限制以及不同模块的差异，不可能使用同一个fw支持所有的模块。后续将采取版本号以"."分隔的第一组字符作为不同fw的区分，后两组字符作为相同功能fw的版本分区。本页描述了各fw支持的模块型号。</t>
   </si>
@@ -34,7 +34,7 @@
     <t>0.x.x</t>
   </si>
   <si>
-    <t>364、503、517、573</t>
+    <t>364、503、517、573、419</t>
   </si>
   <si>
     <t>1.x.x</t>
@@ -183,6 +183,24 @@
   </si>
   <si>
     <t>增加对573项目的支持</t>
+  </si>
+  <si>
+    <t>0.1.6</t>
+  </si>
+  <si>
+    <t>增加对419项目的支持</t>
+  </si>
+  <si>
+    <t>0.1.7</t>
+  </si>
+  <si>
+    <t>修正"dac write"命令不能支持573和419的问题。</t>
+  </si>
+  <si>
+    <t>0.1.8</t>
+  </si>
+  <si>
+    <t>修正573和419项目写入不正确文件长度的问题。</t>
   </si>
   <si>
     <t>1.0.0</t>
@@ -472,10 +490,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -509,10 +527,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -538,9 +557,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,23 +641,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -586,38 +656,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,29 +666,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -662,13 +680,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,55 +824,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,73 +836,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,25 +860,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,6 +1035,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1033,35 +1081,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,21 +1122,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1112,145 +1130,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1689,7 +1707,7 @@
   <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1743,12 +1761,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1983,6 +2001,33 @@
         <v>53</v>
       </c>
       <c r="C26" s="20"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="20"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2030,24 +2075,24 @@
     </row>
     <row r="2" ht="27" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2072,16 +2117,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -2095,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -2109,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2123,26 +2168,26 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -2153,13 +2198,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -2171,27 +2216,27 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="12"/>
@@ -2203,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2">
@@ -2225,21 +2270,21 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -2249,13 +2294,13 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -2265,14 +2310,14 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -2285,12 +2330,12 @@
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G16" s="2">
         <v>2</v>
@@ -2346,16 +2391,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -2369,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -2383,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2397,24 +2442,24 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2423,7 +2468,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2">
@@ -2436,7 +2481,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
@@ -2449,7 +2494,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2">
@@ -2492,16 +2537,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -2515,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -2529,7 +2574,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2543,7 +2588,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -2557,7 +2602,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -2571,7 +2616,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -2585,7 +2630,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -2599,7 +2644,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2613,7 +2658,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -2627,7 +2672,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2641,7 +2686,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2655,7 +2700,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2669,7 +2714,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -2683,26 +2728,26 @@
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2713,13 +2758,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2731,10 +2776,10 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2746,10 +2791,10 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2761,10 +2806,10 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -2775,13 +2820,13 @@
         <v>5</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2793,10 +2838,10 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -2808,10 +2853,10 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2823,30 +2868,30 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -2858,14 +2903,14 @@
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2">
         <v>0</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
@@ -2877,14 +2922,14 @@
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2">
         <v>1</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
@@ -2896,14 +2941,14 @@
         <v>3</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2">
         <v>2</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -2915,14 +2960,14 @@
         <v>4</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2">
         <v>3</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -2934,14 +2979,14 @@
         <v>5</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2">
         <v>4</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -2949,25 +2994,25 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
@@ -2979,13 +3024,13 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="13"/>
@@ -2999,21 +3044,21 @@
         <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G35" s="2">
         <v>11</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="8" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
@@ -3025,19 +3070,19 @@
         <v>2</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G36" s="2">
         <v>12</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="8" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
@@ -3049,19 +3094,19 @@
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G37" s="2">
         <v>6</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="8" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
@@ -3073,19 +3118,19 @@
         <v>4</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G38" s="2">
         <v>8</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="8" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
@@ -3097,21 +3142,21 @@
         <v>5</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G39" s="2">
         <v>9</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="8" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
@@ -3123,19 +3168,19 @@
         <v>6</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G40" s="2">
         <v>10</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="8" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
@@ -3147,19 +3192,19 @@
         <v>7</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G41" s="2">
         <v>5</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="8" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
@@ -3171,19 +3216,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G42" s="2">
         <v>7</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="8" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
@@ -3191,17 +3236,17 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3214,7 +3259,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3225,7 +3270,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3330,16 +3375,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -3353,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -3367,27 +3412,27 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -3399,14 +3444,14 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2">
         <v>0</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -3418,14 +3463,14 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -3433,17 +3478,17 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="5" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3456,7 +3501,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3467,7 +3512,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
